--- a/Documentação/Manobras.xlsx
+++ b/Documentação/Manobras.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goody\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\higor\Documents\GitHub\Funny_Park_inc\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -121,10 +121,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -134,7 +135,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Verificação de manobas</a:t>
+              <a:t>Manobras</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -152,10 +153,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -170,13 +172,12 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Planilha1!$B$1</c:f>
@@ -189,23 +190,56 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:miter lim="800000"/>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$B$2:$B$11</c:f>
@@ -245,9 +279,121 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-0150-44F6-933E-47E4475F152F}"/>
+              <c16:uniqueId val="{00000000-5E04-4D2C-80ED-50D1F075B865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E04-4D2C-80ED-50D1F075B865}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -256,83 +402,6 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>User</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-0150-44F6-933E-47E4475F152F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Planilha1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -343,23 +412,56 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:miter lim="800000"/>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$D$2:$D$11</c:f>
@@ -399,9 +501,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-0150-44F6-933E-47E4475F152F}"/>
+              <c16:uniqueId val="{00000002-5E04-4D2C-80ED-50D1F075B865}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -413,138 +516,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
-        <c:axId val="653105640"/>
-        <c:axId val="577443056"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Planilha1!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Carros</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:noFill/>
-                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:miter lim="800000"/>
-                  </a:ln>
-                  <a:effectLst>
-                    <a:glow rad="63500">
-                      <a:schemeClr val="accent1">
-                        <a:satMod val="175000"/>
-                        <a:alpha val="25000"/>
-                      </a:schemeClr>
-                    </a:glow>
-                  </a:effectLst>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Planilha1!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000E-0150-44F6-933E-47E4475F152F}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="384867248"/>
+        <c:axId val="384860688"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="653105640"/>
+        <c:axId val="384867248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -552,10 +534,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -565,7 +548,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Veiculos</a:t>
+                  <a:t>Quantidade de carros</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -583,10 +566,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -599,13 +583,19 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -616,8 +606,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -628,7 +619,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577443056"/>
+        <c:crossAx val="384860688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -636,7 +627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="577443056"/>
+        <c:axId val="384860688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,23 +636,12 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -674,10 +654,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -687,7 +668,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Segundos</a:t>
+                  <a:t>Tempo em Segundos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -705,10 +686,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -721,7 +703,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -738,8 +720,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -750,7 +733,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653105640"/>
+        <c:crossAx val="384867248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -763,7 +746,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -779,8 +762,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -798,14 +782,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -873,46 +854,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -921,14 +889,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -938,10 +930,148 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -950,360 +1080,170 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1311,8 +1251,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1322,13 +1263,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1340,11 +1282,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1353,15 +1296,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1370,8 +1312,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1385,17 +1328,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1404,8 +1345,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1415,8 +1357,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1425,20 +1373,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1756,7 +1704,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
